--- a/data/clean/turism_expenditure_by_stay.xlsx
+++ b/data/clean/turism_expenditure_by_stay.xlsx
@@ -465,12 +465,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -486,12 +486,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -528,12 +528,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -549,12 +549,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -570,12 +570,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -591,12 +591,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -612,12 +612,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -633,12 +633,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -654,12 +654,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -675,12 +675,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -696,12 +696,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -717,12 +717,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -738,12 +738,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -759,12 +759,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -780,12 +780,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -801,12 +801,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -822,12 +822,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -843,12 +843,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -864,12 +864,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -885,12 +885,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -906,12 +906,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -927,12 +927,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -948,12 +948,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -969,12 +969,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -990,12 +990,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1095,12 +1095,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1242,12 +1242,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1347,12 +1347,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1452,12 +1452,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> De mercado</t>
+          <t>De mercado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1557,12 +1557,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1578,12 +1578,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1620,12 +1620,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1641,12 +1641,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1662,12 +1662,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1725,12 +1725,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1788,12 +1788,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1830,12 +1830,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1851,12 +1851,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1956,12 +1956,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hoteles o apartahotel</t>
+          <t>Hoteles o apartahotel</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1977,12 +1977,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2019,12 +2019,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2061,12 +2061,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2082,12 +2082,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2166,12 +2166,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2208,12 +2208,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2229,12 +2229,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2313,12 +2313,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2376,12 +2376,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2397,12 +2397,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2439,12 +2439,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en alquiler</t>
+          <t>Vivienda en alquiler</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2502,12 +2502,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2544,12 +2544,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2565,12 +2565,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2586,12 +2586,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2628,12 +2628,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2712,12 +2712,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2754,12 +2754,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2880,12 +2880,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2964,12 +2964,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de mercado</t>
+          <t>Resto de mercado</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2985,12 +2985,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -3006,12 +3006,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3027,12 +3027,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -3048,12 +3048,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -3111,12 +3111,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -3132,12 +3132,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3153,12 +3153,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -3237,12 +3237,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -3258,12 +3258,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -3342,12 +3342,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -3405,12 +3405,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -3426,12 +3426,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3447,12 +3447,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No de mercado</t>
+          <t>No de mercado</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3489,12 +3489,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -3510,12 +3510,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3573,12 +3573,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3594,12 +3594,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -3615,12 +3615,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3636,12 +3636,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -3678,12 +3678,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3699,12 +3699,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3720,12 +3720,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3783,12 +3783,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3804,12 +3804,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3825,12 +3825,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3846,12 +3846,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3867,12 +3867,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -3930,12 +3930,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3951,12 +3951,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3972,12 +3972,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda en propiedad</t>
+          <t>Vivienda en propiedad</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -4014,12 +4014,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -4035,12 +4035,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -4077,12 +4077,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -4098,12 +4098,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -4182,12 +4182,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -4224,12 +4224,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -4266,12 +4266,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -4287,12 +4287,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -4308,12 +4308,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -4329,12 +4329,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -4350,12 +4350,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -4371,12 +4371,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -4392,12 +4392,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -4455,12 +4455,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -4476,12 +4476,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vivienda de familiares o amigos</t>
+          <t>Vivienda de familiares o amigos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -4518,12 +4518,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -4539,12 +4539,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -4581,12 +4581,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4602,12 +4602,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto total</t>
+          <t>Gasto total</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -4623,12 +4623,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -4644,12 +4644,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -4665,12 +4665,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -4686,12 +4686,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -4707,12 +4707,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio por persona</t>
+          <t>Gasto medio por persona</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -4749,12 +4749,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -4812,12 +4812,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4833,12 +4833,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -4854,12 +4854,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasto medio diario por persona</t>
+          <t>Gasto medio diario por persona</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -4875,12 +4875,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -4896,12 +4896,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -4917,12 +4917,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -4980,12 +4980,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resto de no mercado</t>
+          <t>Resto de no mercado</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Duración media de los viajes</t>
+          <t>Duración media de los viajes</t>
         </is>
       </c>
       <c r="D217" t="n">
